--- a/src/predicciones/holt_winters/producto_178.xlsx
+++ b/src/predicciones/holt_winters/producto_178.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,145 +404,805 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.9933702967431224</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.782098371397112</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44937</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.021010668803573</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44946</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.781939706207134</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44952</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.940243605483056</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44954</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.018669900153393</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44975</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.138996369689179</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44976</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.9801553180560112</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44982</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.768883392710001</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44989</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.007795690116461</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44994</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.768724727520023</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44999</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.927028626795945</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45005</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.005454921466282</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B15">
+        <v>1.125781391002068</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B16">
+        <v>0.9669403393688998</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B17">
+        <v>1.755668414022889</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B18">
+        <v>0.9945807114293501</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B19">
+        <v>1.755509748832912</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B20">
+        <v>1.913813648108833</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B21">
+        <v>0.9922399427791704</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B22">
+        <v>1.112566412314957</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B23">
+        <v>0.9537253606817886</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B24">
+        <v>1.742453435335778</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B25">
+        <v>0.9813657327422387</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B26">
+        <v>1.742294770145801</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B27">
+        <v>1.900598669421722</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B28">
+        <v>0.979024964092059</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B29">
+        <v>1.099351433627846</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B30">
+        <v>0.9405103819946772</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B31">
+        <v>1.729238456648666</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B32">
+        <v>0.9681507540551275</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B33">
+        <v>1.729079791458689</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B34">
+        <v>1.887383690734611</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B35">
+        <v>0.9658099854049478</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B36">
+        <v>1.086136454940734</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B37">
+        <v>0.9272954033075658</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B38">
+        <v>1.716023477961555</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B39">
+        <v>0.9549357753680161</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B40">
+        <v>1.715864812771578</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B41">
+        <v>1.874168712047499</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B42">
+        <v>0.9525950067178364</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B43">
+        <v>1.072921476253623</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B44">
+        <v>0.9140804246204546</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B45">
+        <v>1.702808499274444</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B46">
+        <v>0.9417207966809047</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B47">
+        <v>1.702649834084466</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B48">
+        <v>1.860953733360388</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B49">
+        <v>0.939380028030725</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B50">
+        <v>1.059706497566512</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B51">
+        <v>0.9008654459333432</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B52">
+        <v>1.689593520587332</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B53">
+        <v>0.9285058179937935</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B54">
+        <v>1.689434855397355</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B55">
+        <v>1.847738754673277</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B56">
+        <v>0.9261650493436138</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B57">
+        <v>1.0464915188794</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B58">
+        <v>0.8876504672462318</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B59">
+        <v>1.676378541900221</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B60">
+        <v>0.9152908393066821</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B61">
+        <v>1.676219876710244</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B62">
+        <v>1.834523775986165</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B63">
+        <v>0.9129500706565024</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B64">
+        <v>1.033276540192289</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B65">
+        <v>0.8744354885591206</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B66">
+        <v>1.66316356321311</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B67">
+        <v>0.9020758606195709</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B68">
+        <v>1.663004898023133</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B69">
+        <v>1.821308797299054</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B70">
+        <v>0.8997350919693912</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B71">
+        <v>1.020061561505178</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B72">
+        <v>0.8612205098720092</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B73">
+        <v>1.649948584525999</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B74">
+        <v>0.8888608819324595</v>
+      </c>
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
